--- a/extracted_excel/Bomet_gendered_enterprise.xlsx
+++ b/extracted_excel/Bomet_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Bomet</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -142,10 +136,10 @@
     <t>What kinds of support (financial, technical, policy) would make it easier for women and marginalized groups to thrive?</t>
   </si>
   <si>
-    <t>Value chains: Maize, beans, potatoes food security crops, economic value of the crops Programmes ie NAVCPD,ASDSP- Support specific value chains in prioritization (commercialization tool(ASDSP))-Women and youth involvement, economic importance of the valuechains-The tool had some scores which determined value chain would be what number ASDSP- commercialization tool and suitability maps were used- agroecological aspect Stakeholder engagement was carried out with youth, markets and different parties Ranking by stakeholders in terms of priority, Three categories: Subsistence, emerging, commercialize Consultant was engaged at national level to develop the tool Representative forums was carried out</t>
-  </si>
-  <si>
-    <t>No response provided</t>
+    <t>Value chains: Maize, beans, potatoes food security crops, economic value of the crops Programmes ie NAVCPD,ASDSP- Support specific value chains in prioritization (commercialization tool(ASDSP))-Women and youth involvement, economic importance of the valuechains-The tool had some scores which determined value chain would be what number  ASDSP- commercialization tool and suitability maps were used- agroecological aspect Stakeholder engagement was carried out with youth, markets and different parties Ranking by stakeholders in terms of priority, Three categories: Subsistence, emerging, commercialize Consultant was engaged at national level to develop the tool Representative forums was carried out</t>
+  </si>
+  <si>
+    <t>-pick from the answer above</t>
   </si>
   <si>
     <t>Maize, beans, potatoes,avocadoes, dairy and poultry Poultry- preferred by women because of the viable start-up Dairy- men (Cultural aspect), women provide labour (feeding, milking) Potatoes- male dominated- women offer labour Tea - male dominated</t>
@@ -163,7 +157,7 @@
     <t>Cultural aspect - Hierarchy of ownership, women have no say in disposal of heavy assets ie cows and land. Inheritance- most of the inherited wealth goes to the man Men dominate sustainable enterprises. Access to financial resources, men are more accessible to loans, Financial literacy Reproductive roles for women which is taking much of their time</t>
   </si>
   <si>
-    <t>Enterprise Gender role in value chain Why Dairy Women - Feeding, Milking, selling and marketing, cleaning, weeding of pastures, pasteurization, Fermentation (mursik), {Subsistence production} Men - large scale production, commercial production, spraying, animal purchase, planting fodder, management practices Youth - Transportation, Feeding, Milking, selling and marketing, cleaning, weeding of pastures, pasteurization, {Subsistence production} Women are mostly at home and have time, time of activity Men are away from home most of the time Labour intensive, men are more masculine in nature, Energetic, ease of access the means of transportation (motorcycles), division of chores (Part of household roles) Poultry Women- Feeding, egg collection, marketing, treating, vaccinations, selling, cleaning, Men- construction of poultry houses, trading, transportation, vaccination Youth- Feeding, egg collection, marketing, treating, vaccinations, selling, cleaning, transportation Women are mostly at home and have time, time of activity Labour intensive, men are more masculine in nature, Energetic, ease of access the means of transportation (motorcycles), division of chores (Part of household roles) Indigenous Vegetables Women - all production aspects ie land preparation, trading, harvesting, sorting Men- Minimal engagement, perimeter and fencing Youth- Harvesting, transport Small scale Tea Women - Plucking, weeding, transportation, Men- Planting, weeding, plucking, transportation, pruning, top dressing Youth- fertilizer application,Plucking, weeding, transportation, pruning Labour intensive Cabbage Men- land preparation, planting, spraying, weeding, marketing, harvesting, transporting Women-planting, weeding, marketing, harvesting Youth- land preparation, planting, spraying, weeding, marketing, harvesting, Flexible anybody can venture</t>
+    <t>Enterprise Gender role in value chain Why Dairy Women - Feeding, Milking, selling and marketing, cleaning, weeding of pastures, pasteurization, Fermentation (mursik), {Subsistence production} Men - large scale production, commercial production, spraying, animal purchase, planting fodder, management practices Youth - Transportation, Feeding, Milking, selling and marketing, cleaning, weeding of pastures, pasteurization, {Subsistence production} Women are mostly at home and have time, time of activity  Men are away from home most of the time  Labour intensive, men are more masculine in nature,  Energetic, ease of access the means of transportation (motorcycles), division of chores (Part of household roles) Poultry Women- Feeding, egg collection, marketing, treating, vaccinations, selling, cleaning,  Men- construction of poultry houses, trading, transportation, vaccination  Youth- Feeding, egg collection, marketing, treating, vaccinations, selling, cleaning, transportation  Women are mostly at home and have time, time of activity  Labour intensive, men are more masculine in nature,  Energetic, ease of access the means of transportation (motorcycles), division of chores (Part of household roles) Indigenous Vegetables Women - all production aspects ie land preparation, trading, harvesting, sorting Men- Minimal engagement, perimeter and fencing Youth- Harvesting, transport Small scale Tea Women - Plucking, weeding, transportation, Men- Planting, weeding, plucking, transportation, pruning, top dressing Youth- fertilizer application,Plucking, weeding, transportation, pruning Labour intensive Cabbage Men- land preparation, planting, spraying, weeding, marketing, harvesting, transporting Women-planting, weeding, marketing, harvesting Youth- land preparation, planting, spraying, weeding, marketing, harvesting, Flexible anybody can venture</t>
   </si>
   <si>
     <t>Enterprise Subsistence Dairy Feeding, Milking, selling and marketing, cleaning, weeding of pastures, pasteurization, Fermentation (mursik), {Subsistence production} Poultry Feeding, egg collection, marketing, treating, vaccinations, selling, cleaning, Indigenous Vegetables all production aspects ie land preparation, trading, harvesting, sorting</t>
@@ -190,10 +184,10 @@
     <t>Enterprise profitability levels &amp; economic benefit Maize Food security, source of income, animal feeds Beans Food and nutrition security, source of income, animal feeds Dairy (Cows) Food and nutrition security, source of income Poultry Moderate economic value, necessity, financial and nutritional benefit Tea High economic value, access to loans</t>
   </si>
   <si>
-    <t>Women - Sorghum, Poultry, Sweet potatoes,Finger millet Men- Tea, Dairy, Irish Potatoes, Avocadoes Male dominated enterprises are commercial,sustainable compared to female dominated enterprises</t>
-  </si>
-  <si>
-    <t>Women - Sorghum, Poultry, Sweet potatoes,Finger millet Men- Tea, Dairy, Irish Potatoes, Avocadoes Highland areas, based on agroecological aspect Can be culturally accepted in other regions Indigenous vegetables ie spider plants, people in west rift prefer bitter variety</t>
+    <t>Women - Sorghum, Poultry, Sweet potatoes,Finger millet Men- Tea, Dairy, Irish Potatoes, Avocadoes  Male dominated enterprises are commercial,sustainable compared to female dominated enterprises</t>
+  </si>
+  <si>
+    <t>Women - Sorghum, Poultry, Sweet potatoes,Finger millet Men- Tea, Dairy, Irish Potatoes, Avocadoes  Highland areas, based on agroecological aspect Can be culturally accepted in other regions Indigenous vegetables ie spider plants, people in west rift prefer bitter variety</t>
   </si>
   <si>
     <t>Enhancing extension support, linkage to appropriate climate smart production technologies, make use of the existing marketing platforms, Aggregation to command tradable volumes, Value addition, enhanced market access ( utilizing digital platforms), contract marketing, technologies that can guarantee quality produce</t>
@@ -217,7 +211,7 @@
     <t>Sensitization.</t>
   </si>
   <si>
-    <t>Enforcement of standardized unit of measure for produce Financial institutions to develop gender friendly credit Review of Land policies and ownership Women enterprise fund Technical support Capacity building on value chain specific technologies and innovations management practices Access to credit Enterprise | WOMEN | MEN | YOUTH | Elderly Dairy | Women | Men | Youth | Elderly Poultry | Women | Men | Youth | Elderly Sheep and Goat | Women | Men | Youth | Elderly Apiculture (Bee keeping) | --- | Men | Youth | --- Maize | Women | Men | Youth | Elderly Beans | Women | Men | Youth | Elderly Potatoes | Women | Men | Youth | --- Tea | Women | Men | Youth | Elderly Avocadoes | Women | Men | Youth | Elderly [UNLINKED TABLE DATA]: Enterprise | Gender role in value chain | Why Dairy | Women - Feeding, Milking, selling and marketing, cleaning, weeding of pastures, pasteurization, Fermentation (mursik), {Subsistence production} Men - large scale production, commercial production, spraying, animal purchase, planting fodder, management practices Youth - Transportation, Feeding, Milking, selling and marketing, cleaning, weeding of pastures, pasteurization, {Subsistence production} | Women are mostly at home and have time, time of activity Men are away from home most of the time Labour intensive, men are more masculine in nature, Energetic, ease of access the means of transportation (motorcycles), division of chores (Part of household roles) Poultry | Women- Feeding, egg collection, marketing, treating, vaccinations, selling, cleaning, Men- construction of poultry houses, trading, transportation, vaccination Youth- Feeding, egg collection, marketing, treating, vaccinations, selling, cleaning, transportation | Women are mostly at home and have time, time of activity Labour intensive, men are more masculine in nature, Energetic, ease of access the means of transportation (motorcycles), division of chores (Part of household roles) Indigenous Vegetables | Women - all production aspects ie land preparation, trading, harvesting, sorting Men- Minimal engagement, perimeter and fencing Youth- Harvesting, transport | Small scale Tea | Women - Plucking, weeding, transportation, Men- Planting, weeding, plucking, transportation, pruning, top dressing Youth- fertilizer application,Plucking, weeding, transportation, pruning | Labour intensive Cabbage | Men- land preparation, planting, spraying, weeding, marketing, harvesting, transporting Women-planting, weeding, marketing, harvesting Youth- land preparation, planting, spraying, weeding, marketing, harvesting, | Flexible anybody can venture [UNLINKED TABLE DATA]: Enterprise | Subsistence Dairy | Feeding, Milking, selling and marketing, cleaning, weeding of pastures, pasteurization, Fermentation (mursik), {Subsistence production} Poultry | Feeding, egg collection, marketing, treating, vaccinations, selling, cleaning, Indigenous Vegetables | all production aspects ie land preparation, trading, harvesting, sorting [UNLINKED TABLE DATA]: --- | Men | Women | Youth | Elderly Land | Yes Very accessible | Yes Limited access and control | yes Limited access and control | Yes Own the land Finance- | Yes Have collaterals like title deeds | Limited access Chamas | Limited access Chamas | Yes Training and knowledge/extension | Yes | Yes | Yes | Yes Access to information as market, weather | Yes | Limited access and disadvantaged | Yes | Limited access and disadvantaged Access to technology eg ICT, digital gadgets, internet, digital literacy | Yes | Limited access and disadvantaged | Yes | Limited access [UNLINKED TABLE DATA]: Enterprise | demand (1-10) | Competition Maize | 9 | Rice (Supplementary product) Beans | 9 | Peas, green grams Irish Potatoes | 8 | Sweet potatoes Dairy (Cows) | 9 | Dairy (Goats), soya milk Poultry | 9 | Fish (meat), pigs Avocados | 8 | Mangoes [UNLINKED TABLE DATA]: Enterprise | Opportunity women can tap in Value chain | Opportunity women can tap in Value Addition Maize | Aggregation and marketing, selling, weeding , harvesting, threshing, | Milling, blending ie with sorghum and millet (to enhance nutrition), package, cow feeds, sillage, boiled and roasted maize Beans | Aggregation and marketing, selling, weeding , harvesting, threshing,seed production, stockist (input supplies), | Sorting and Packaging Avocados | Nursery operators (grafting,root stock), Aggregation and marketing, organically produced fruits | Sorting, grading and Packaging, cold rooms, Poultry | Hatching and brooding, Feed formulation, production, Aggregation and marketing (eggs and live birds), Vaccination, selling of manure, black soilder fly, azolla production, biogas | Sorting, packaging, marketing, cakes,pancakes, dressing and selling of meat, vending, chicken butcheries, Dairy (Cows) | Stockist, feed formulation, bulking,chilling and marketing of milk, calf rearing, azolla production, selling of dairy manure, biogas | Mursik, Yorghut, cheese, ghee, pasteurization and dispensing Irish Potatoes | Seed production, Selling and marketing, Stockist, weeding services, Transportation, Aggregation | Chips and crisps, livestock feed and compost [UNLINKED TABLE DATA]: Enterprise | profitability levels &amp; economic benefit Maize | Food security, source of income, animal feeds Beans | Food and nutrition security, source of income, animal feeds Dairy (Cows) | Food and nutrition security, source of income Poultry | Moderate economic value, necessity, financial and nutritional benefit Tea | High economic value, access to loans</t>
+    <t>Enforcement of standardized unit of measure for produce Financial institutions to develop gender friendly credit Review of Land policies and ownership Women enterprise fund  Technical support Capacity building on value chain specific technologies and innovations management practices Access to credit</t>
   </si>
 </sst>
 </file>
@@ -575,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,414 +585,315 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C30" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
